--- a/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
+++ b/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
   <si>
     <t>事件</t>
   </si>
@@ -40,7 +40,7 @@
     <t>费！</t>
   </si>
   <si>
-    <t>今天给大家看点想看的东西</t>
+    <t>今天给大家看点想看的东西,aasdhahshdhahahshdhdhwhaxi</t>
   </si>
   <si>
     <t>C</t>
@@ -49,7 +49,7 @@
     <t>欸！</t>
   </si>
   <si>
-    <t>什么玩意它这是</t>
+    <t>什么玩意它这是?sssssssssssdas</t>
   </si>
   <si>
     <t>救命！</t>
@@ -68,14 +68,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,148 +524,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,10 +990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1089,6 +1082,110 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
+++ b/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>事件</t>
   </si>
@@ -28,34 +28,37 @@
     <t>正文</t>
   </si>
   <si>
+    <t>南希</t>
+  </si>
+  <si>
+    <t>奥利安</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>费！</t>
+  </si>
+  <si>
+    <t>今天给大家看点想看的东西,aasdhahshdhahahshdhdhwhaxi</t>
+  </si>
+  <si>
+    <t>欸！</t>
+  </si>
+  <si>
+    <t>什么玩意它这是?sssssssssssdas</t>
+  </si>
+  <si>
+    <t>救命！</t>
+  </si>
+  <si>
+    <t>哇袄！</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>奥利安</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>费！</t>
-  </si>
-  <si>
-    <t>今天给大家看点想看的东西,aasdhahshdhahahshdhdhwhaxi</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>欸！</t>
-  </si>
-  <si>
-    <t>什么玩意它这是?sssssssssssdas</t>
-  </si>
-  <si>
-    <t>救命！</t>
-  </si>
-  <si>
-    <t>哇袄！</t>
   </si>
 </sst>
 </file>
@@ -993,7 +996,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1044,34 +1047,34 @@
     </row>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -1079,12 +1082,12 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1100,7 +1103,7 @@
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1108,26 +1111,26 @@
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -1135,20 +1138,20 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1172,18 +1175,18 @@
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
+++ b/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>事件</t>
   </si>
@@ -40,10 +40,16 @@
     <t>费！</t>
   </si>
   <si>
+    <t>SetPos-南希-0.3-0</t>
+  </si>
+  <si>
     <t>今天给大家看点想看的东西,aasdhahshdhahahshdhdhwhaxi</t>
   </si>
   <si>
     <t>欸！</t>
+  </si>
+  <si>
+    <t>SetPos-南希-0.6-0</t>
   </si>
   <si>
     <t>什么玩意它这是?sssssssssssdas</t>
@@ -996,7 +1002,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1037,12 +1043,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:4">
@@ -1050,15 +1059,18 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1066,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:4">
@@ -1074,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:4">
@@ -1082,12 +1094,12 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1103,10 +1115,10 @@
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:4">
@@ -1114,23 +1126,23 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -1138,20 +1150,20 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1167,26 +1179,26 @@
     </row>
     <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
+++ b/Assets/StreamingAssets/Book/CN/conversation/TestBook.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>事件</t>
   </si>
@@ -31,40 +32,52 @@
     <t>南希</t>
   </si>
   <si>
+    <t>这是第一章</t>
+  </si>
+  <si>
+    <t>Book-conversation/TestBook2.xlsx</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SetPos-南希-0.3-0</t>
+  </si>
+  <si>
+    <t>今天给大家看点想看的东西,aasdhahshdhahahshdhdhwhaxi</t>
+  </si>
+  <si>
+    <t>欸！</t>
+  </si>
+  <si>
+    <t>SetPos-南希-0.6-0</t>
+  </si>
+  <si>
+    <t>什么玩意它这是?sssssssssssdas</t>
+  </si>
+  <si>
+    <t>救命！</t>
+  </si>
+  <si>
+    <t>哇袄！</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>奥利安</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>费！</t>
   </si>
   <si>
-    <t>SetPos-南希-0.3-0</t>
-  </si>
-  <si>
-    <t>今天给大家看点想看的东西,aasdhahshdhahahshdhdhwhaxi</t>
-  </si>
-  <si>
-    <t>欸！</t>
-  </si>
-  <si>
-    <t>SetPos-南希-0.6-0</t>
-  </si>
-  <si>
-    <t>什么玩意它这是?sssssssssssdas</t>
-  </si>
-  <si>
-    <t>救命！</t>
-  </si>
-  <si>
-    <t>哇袄！</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>这是第二章</t>
+  </si>
+  <si>
+    <t>Chapter-1</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1015,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1035,12 +1048,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1102,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -1110,7 +1126,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="3:4">
@@ -1131,7 +1147,7 @@
     </row>
     <row r="14" spans="3:4">
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1139,7 +1155,7 @@
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
@@ -1147,7 +1163,7 @@
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1166,15 +1182,15 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:4">
@@ -1187,7 +1203,7 @@
     </row>
     <row r="21" spans="3:4">
       <c r="C21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1195,7 +1211,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1205,4 +1221,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.0083333333333" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>